--- a/example_data/Summary/before/Individual Values/Indv AUC Magnitude Change_before_.xlsx
+++ b/example_data/Summary/before/Individual Values/Indv AUC Magnitude Change_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,225 +438,923 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.57490023396349</v>
+        <v>-2.540128883515235</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.921202039668117</v>
+        <v>-0.2220736781812089</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-1.57490023396349</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-1.57490023396349</v>
+        <v>-2.540128883515235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.895891317700961</v>
+        <v>-0.7956432860468023</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.808461182381194</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9.921202039668117</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9.921202039668117</v>
+        <v>-0.7956432860468023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.34533825334133</v>
+        <v>2.479900960830442</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.1070715974064</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.895891317700961</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8.895891317700961</v>
+        <v>2.479900960830442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.75953928599368</v>
+        <v>1.691480273729129</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.406809225284324</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10.34533825334133</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10.34533825334133</v>
+        <v>1.691480273729129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4941859820478314</v>
+        <v>-4.273926676031364</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.739214701195044</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-1.75953928599368</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-1.75953928599368</v>
+        <v>-4.273926676031364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.961601446943677</v>
+        <v>6.179634267774716</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.708840622703194</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.4941859820478314</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.4941859820478314</v>
+        <v>6.179634267774716</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19.55846937458023</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4861223750068078</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-1.961601446943677</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-1.961601446943677</v>
+        <v>19.55846937458023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.05353955496402563</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.015801205266472</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.05353955496402563</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.823103225435282</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2020283182083933</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-2.823103225435282</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.085286734758132</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.312419888378676</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-2.085286734758132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.713523391315562</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1074892449781384</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5.713523391315562</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8.411055842770139</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-3.856443198634325</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.2220736781812089</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.345045760640122</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.26625493178112</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.808461182381194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.055896108043891</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13.85584299690358</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-4.1070715974064</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.7545596910835464</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.160138407632445</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-2.406809225284324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-6.389849374092661</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.739214701195044</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12.52132347496417</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.708840622703194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.401689533343886</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4861223750068078</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9124287820156365</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.015801205266472</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3.561231058077088</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>8.411055842770139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5.155397294226065</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>6.345045760640122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>76.2688808659118</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.055896108043891</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>25.51973801440109</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.7545596910835464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7.530609312711654</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-6.389849374092661</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13.35995430954079</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>12.52132347496417</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.7724505893502673</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>5.401689533343886</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3.086605484637245</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9124287820156365</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.346228268282427</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2020283182083933</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.924569331742935</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.312419888378676</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8.377864672359884</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.561231058077088</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>21.99846246492881</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5.155397294226065</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.203894724239085</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1074892449781384</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7.647985766433084</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>76.2688808659118</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2626437209549017</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>25.51973801440109</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-4.531307973059002</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>7.530609312711654</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>13.35995430954079</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.7724505893502673</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3.086605484637245</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.346228268282427</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-2.924569331742935</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>8.377864672359884</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>21.99846246492881</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-1.203894724239085</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>7.647985766433084</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>-3.856443198634325</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-1.26625493178112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>13.85584299690358</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.160138407632445</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-4.531307973059002</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +1368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,225 +1379,923 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.57490023396349</v>
+        <v>-2.540128883515234</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.921202039668117</v>
+        <v>-0.2220736781812089</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-1.57490023396349</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-1.57490023396349</v>
+        <v>-2.540128883515234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.895891317700965</v>
+        <v>-0.7956432860468023</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.808461182381194</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9.921202039668117</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9.921202039668117</v>
+        <v>-0.7956432860468023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.34533825334133</v>
+        <v>2.479900960830447</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.107071597406398</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.895891317700965</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8.895891317700965</v>
+        <v>2.479900960830447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.75953928599368</v>
+        <v>1.691480273729134</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.406809225284324</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10.34533825334133</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10.34533825334133</v>
+        <v>1.691480273729134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4941859820478278</v>
+        <v>-4.273926676031362</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.739214701195044</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-1.75953928599368</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-1.75953928599368</v>
+        <v>-4.273926676031362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.961601446943675</v>
+        <v>6.179634267774713</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.708840622703191</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.4941859820478278</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.4941859820478278</v>
+        <v>6.179634267774713</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19.55846937458023</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4861223750068024</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-1.961601446943675</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-1.961601446943675</v>
+        <v>19.55846937458023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.05353955496402385</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.01580120526647022</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.05353955496402385</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.823103225435283</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2020283182083951</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-2.823103225435283</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.085286734758133</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.312419888378674</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-2.085286734758133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.713523391315562</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1074892449781366</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5.713523391315562</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8.411055842770139</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-3.856443198634325</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.2220736781812089</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.345045760640119</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.266254931781122</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.808461182381194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.055896108043893</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13.85584299690359</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-4.107071597406398</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.7545596910835464</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.160138407632447</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-2.406809225284324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-6.389849374092661</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.739214701195044</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12.52132347496417</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.708840622703191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.401689533343886</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4861223750068024</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.91242878201564</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.01580120526647022</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3.561231058077087</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>8.411055842770139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5.155397294226061</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>6.345045760640119</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>76.26888086591178</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.055896108043893</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>25.51973801440108</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.7545596910835464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7.53060931271165</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-6.389849374092661</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13.35995430954078</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>12.52132347496417</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.7724505893502656</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>5.401689533343886</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3.086605484637246</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.91242878201564</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.346228268282429</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2020283182083951</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.924569331742934</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.312419888378674</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8.377864672359877</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.561231058077087</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>21.9984624649288</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5.155397294226061</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.203894724239087</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1074892449781366</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7.647985766433081</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>76.26888086591178</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2626437209549053</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>25.51973801440108</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-4.531307973059004</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>7.53060931271165</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>13.35995430954078</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.7724505893502656</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3.086605484637246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.346228268282429</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-2.924569331742934</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>8.377864672359877</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>21.9984624649288</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-1.203894724239087</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>7.647985766433081</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>-3.856443198634325</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-1.266254931781122</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>13.85584299690359</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.160138407632447</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-4.531307973059004</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,239 +2320,1019 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.283938009938165</v>
+        <v>6.003218599779387</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-8.237644386196624</v>
+        <v>0.5107546296943859</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-8.283938009938165</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-8.283938009938165</v>
+        <v>6.003218599779387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.676338305132227</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>-9.252259258376919</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.420930411911618</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-8.237644386196624</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-8.237644386196624</v>
+        <v>-9.252259258376919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.26523751014785</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>25.00559670138737</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.910233723362087</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-6.676338305132227</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>-6.676338305132227</v>
+        <v>25.00559670138737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.05069074127346</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>6.822642171870889</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>21.69434438541098</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-9.26523751014785</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>-9.26523751014785</v>
+        <v>6.822642171870889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.491597827029764</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>-8.271470981193016</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-5.567296362163874</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>45.05069074127346</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>45.05069074127346</v>
+        <v>-8.271470981193016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.023762039397232</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>-4.517243438636383</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-7.204199670203052</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.491597827029764</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2.491597827029764</v>
+        <v>-4.517243438636383</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.432432152042063</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.049773450155331</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-4.023762039397232</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-4.023762039397232</v>
+        <v>-1.432432152042063</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2493174287590971</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1714074242222718</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.2493174287590971</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-9.531251167585506</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-9.757269332915447</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-9.531251167585506</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.57390062402244</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>15.17625388282946</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>63.57390062402244</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.437912627955079</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.62285762036248</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3.437912627955079</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>96.5532469469704</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.031714399855108</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5107546296943859</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-5.244752236685343</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.452367888998237</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-4.420930411911618</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1266.254204970564</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2.108272875639887</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-2.910233723362087</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.630139864938618</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.562079931009967</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>21.69434438541098</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.04872834128824</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-5.567296362163874</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-7.455829245194553</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-7.204199670203052</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.767775190295977</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-5.049773450155331</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>46.34310348724235</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1714074242222718</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.205157387510528</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>96.5532469469704</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-5.100158264926409</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.244752236685343</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-4.68658610801282</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1266.254204970564</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-5.852074889994015</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3.630139864938618</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-9.80718516698003</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>86.04872834128824</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-7.297744465136747</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-7.455829245194553</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.086584993903854</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.767775190295977</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-8.883352646352762</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>46.34310348724235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-4.052726100154412</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-9.757269332915447</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>50.26713589831346</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>15.17625388282946</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>44.70271775783866</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.205157387510528</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-7.931078297904376</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-5.100158264926409</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-9.654118146910436</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-4.62285762036248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-3.227502868074723</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-4.68658610801282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.5385655564695444</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-5.852074889994015</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-9.093367021910522</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-9.80718516698003</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>-7.297744465136747</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.086584993903854</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>-8.883352646352762</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-4.052726100154412</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>50.26713589831346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>44.70271775783866</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-7.931078297904376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-9.654118146910436</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>-3.227502868074723</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2.031714399855108</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>3.452367888998237</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.108272875639887</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.562079931009967</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-9.093367021910522</v>
       </c>
     </row>
   </sheetData>
